--- a/controle_glicemico.xlsx
+++ b/controle_glicemico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\larys\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\laryssastephanie\workspace\controle_glicemico\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4539196A-CF91-47B1-91DA-0B77BE931BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F06CC2D7-BF61-4802-80CD-D6C36B79A767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{295717E5-0248-49D5-BFF4-DBBB41FB6FEE}"/>
+    <workbookView xWindow="4365" yWindow="3960" windowWidth="21600" windowHeight="11295" xr2:uid="{295717E5-0248-49D5-BFF4-DBBB41FB6FEE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -399,8 +399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644D8533-1997-4238-B6B2-8129E8238F83}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1087,6 +1087,9 @@
       <c r="C51">
         <v>163</v>
       </c>
+      <c r="D51">
+        <v>130</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
